--- a/docs/Examples/Fitting_Water_Silicate_Melts/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
+++ b/docs/Examples/Fitting_Water_Silicate_Melts/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
@@ -1,37 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+  <si>
+    <t>Host filename</t>
+  </si>
+  <si>
+    <t>MI filename</t>
+  </si>
+  <si>
+    <t>HW:LW_Trapezoid</t>
+  </si>
+  <si>
+    <t>HW:LW_Simpson</t>
+  </si>
+  <si>
+    <t>Water_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>Water_Simpson_Area</t>
+  </si>
+  <si>
+    <t>Silicate_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>Silicate_Simpson_Area</t>
+  </si>
+  <si>
+    <t>Silicate_LHS_Back1</t>
+  </si>
+  <si>
+    <t>Silicate_LHS_Back2</t>
+  </si>
+  <si>
+    <t>Silicate_RHS_Back1</t>
+  </si>
+  <si>
+    <t>Silicate_RHS_Back2</t>
+  </si>
+  <si>
+    <t>Silicate_N_Poly</t>
+  </si>
+  <si>
+    <t>LW_Silicate_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>LW_Silicate_Simpson_Area</t>
+  </si>
+  <si>
+    <t>HW_Silicate_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>HW_Silicate_Simpson_Area</t>
+  </si>
+  <si>
+    <t>MW_Silicate_Trapezoid_Area</t>
+  </si>
+  <si>
+    <t>MW_Silicate_Simpson_Area</t>
+  </si>
+  <si>
+    <t>Water Filename</t>
+  </si>
+  <si>
+    <t>Water_LHS_Back1</t>
+  </si>
+  <si>
+    <t>Water_LHS_Back2</t>
+  </si>
+  <si>
+    <t>Water_RHS_Back1</t>
+  </si>
+  <si>
+    <t>Water_RHS_Back2</t>
+  </si>
+  <si>
+    <t>Water_N_Poly</t>
+  </si>
+  <si>
+    <t>03 CC14_MI2_Ol_96mw.txt</t>
+  </si>
+  <si>
+    <t>06 CC13_MI4_Ol.txt</t>
+  </si>
+  <si>
+    <t>10 CC9_MI3_Ol.txt</t>
+  </si>
+  <si>
+    <t>16 CC9_MI1_Ol_50X.txt</t>
+  </si>
+  <si>
+    <t>19 CC5_MI1_Ol.txt</t>
+  </si>
+  <si>
+    <t>22 CC7_MI3_Ol.txt</t>
+  </si>
+  <si>
+    <t>25 CC4_MI1_Ol.txt</t>
+  </si>
+  <si>
+    <t>30 MS13_2_MI1_Ol.txt</t>
+  </si>
+  <si>
+    <t>02 CC14_MI2_H2O_96mw.txt</t>
+  </si>
+  <si>
+    <t>05 CC13_MI4_H2O.txt</t>
+  </si>
+  <si>
+    <t>09 CC9_MI3_H2O.txt</t>
+  </si>
+  <si>
+    <t>12 CC9_MI1_H2O_20X.txt</t>
+  </si>
+  <si>
+    <t>15 CC9_MI1_H2O_50X.txt</t>
+  </si>
+  <si>
+    <t>18 CC5_MI1_H2O_10mw.txt</t>
+  </si>
+  <si>
+    <t>21 CC7_MI3_H2O.txt</t>
+  </si>
+  <si>
+    <t>24 CC4_MI1_H2O.txt</t>
+  </si>
+  <si>
+    <t>29 MS13_2_MI1_H2O.txt</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +180,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,921 +496,811 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Host filename</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MI filename</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HW:LW_Trapezoid</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HW:LW_Simpson</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Water_Trapezoid_Area</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Water_Simpson_Area</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Silicate_Trapezoid_Area</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Silicate_Simpson_Area</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Silicate_LHS_Back1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Silicate_LHS_Back2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Silicate_RHS_Back1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Silicate_RHS_Back2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Silicate_N_Poly</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LW_Silicate_Trapezoid_Area</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>LW_Silicate_Simpson_Area</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>HW_Silicate_Trapezoid_Area</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>HW_Silicate_Simpson_Area</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>MW_Silicate_Trapezoid_Area</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>MW_Silicate_Simpson_Area</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Water Filename</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Water_LHS_Back1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Water_LHS_Back2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Water_RHS_Back1</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Water_RHS_Back2</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Water_N_Poly</t>
-        </is>
+    <row r="1" spans="1:26">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:26">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>03 CC14_MI2_Ol_96mw.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>02 CC14_MI2_H2O_96mw.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
         <v>1.065691543078758</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1.062774111100251</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>211330.7171463963</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>211165.8087804655</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>379864.4962633868</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>379745.0131779807</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>200</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>320</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>1200</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>1300</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>198303.8323977563</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>198693.0304143872</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>198303.8323977563</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>198693.0304143872</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>2856.492902988196</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>2889.766263740253</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>03 CC14_MI2_Ol_96mw.txt</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2">
         <v>2400</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>2750</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>3750</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>4100</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:26">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>06 CC13_MI4_Ol.txt</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>05 CC13_MI4_H2O.txt</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
         <v>1.026382914956093</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1.027835536277315</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>204905.6234018446</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>204953.0991150654</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>378823.385237303</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>378959.4773958451</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>200</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>320</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>1200</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>1300</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>199638.5758336693</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>199402.6202454319</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>199638.5758336693</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>199402.6202454319</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>3243.413313619381</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>3171.252207583208</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>06 CC13_MI4_Ol.txt</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3">
         <v>2400</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>2750</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>3750</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>4100</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:26">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10 CC9_MI3_Ol.txt</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>09 CC9_MI3_H2O.txt</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
         <v>1.144681175072166</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1.144598466934983</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>390345.8836038833</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>390493.0153701139</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>641775.587931565</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>641133.9693090838</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>200</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>320</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>1200</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>1300</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>341008.3891519174</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>341161.5746924594</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>341008.3891519174</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>341161.5746924594</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>8678.840040662884</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>8710.81382683795</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>10 CC9_MI3_Ol.txt</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4">
         <v>2400</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>2750</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>3750</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>4100</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:26">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16 CC9_MI1_Ol_50X.txt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12 CC9_MI1_H2O_20X.txt</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
         <v>2.093381815004508</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2.093516593905724</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>271652.008729049</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>271618.7162290477</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>262087.1780600768</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>262072.5192892833</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>200</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>320</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>1200</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>1300</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>129767.0624546168</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>129742.8054880177</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>129767.0624546168</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>129742.8054880177</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>3076.166397692113</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>3017.302180570991</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>16 CC9_MI1_Ol_50X.txt</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
+      <c r="U5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5">
         <v>2400</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>2750</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>3750</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>4100</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:26">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16 CC9_MI1_Ol_50X.txt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15 CC9_MI1_H2O_50X.txt</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
         <v>1.199234652750929</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1.200204170214932</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>203547.7422834505</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>203697.502550851</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>347528.1130071729</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>347401.545257004</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>200</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>320</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>1200</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1300</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>169731.371434716</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>169719.0424812247</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>169731.371434716</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>169719.0424812247</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>5423.488224573</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>5568.872825816409</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>16 CC9_MI1_Ol_50X.txt</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6">
         <v>2400</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>2750</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>3750</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>4100</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:26">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>19 CC5_MI1_Ol.txt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>18 CC5_MI1_H2O_10mw.txt</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
         <v>1.502842511405003</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1.502167412406063</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>452191.283881026</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>452122.5283720619</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>600078.8888896341</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>599704.0599146485</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>200</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>320</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>1200</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>1300</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>5</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>300890.6658211802</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>300980.1202170168</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>300890.6658211802</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>300980.1202170168</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>3891.606261648461</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>3878.421110774754</v>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>19 CC5_MI1_Ol.txt</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7">
         <v>2400</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>2750</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>3750</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>4100</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:26">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>22 CC7_MI3_Ol.txt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21 CC7_MI3_H2O.txt</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
         <v>0.9391688424073371</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.938510439729218</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>350526.6765265227</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>350212.0565708795</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>645400.4301862975</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>645991.0374570688</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>200</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>320</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>1200</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1300</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>373230.734132992</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>373157.337143659</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>373230.734132992</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>373157.337143659</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>-1187.882503579991</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>-1071.842340321478</v>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>22 CC7_MI3_Ol.txt</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8">
         <v>2400</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>2750</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>3750</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>4100</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:26">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>25 CC4_MI1_Ol.txt</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>24 CC4_MI1_H2O.txt</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
         <v>1.399086518288756</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1.400453303369296</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3935931.766783885</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>3940016.475411843</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>5770053.565050554</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5763112.370893992</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>200</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>320</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>1200</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>1300</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>5</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>2813215.419728283</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>2813386.541295387</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>2813215.419728283</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>2813386.541295387</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>61186.66239566055</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>60713.03630594398</v>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>25 CC4_MI1_Ol.txt</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9">
         <v>2400</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>2750</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>3750</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>4100</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:26">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>30 MS13_2_MI1_Ol.txt</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>29 MS13_2_MI1_H2O.txt</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
         <v>0.1855341846314222</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.185022436542896</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>68860.64036704937</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>68760.36863352277</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>706096.1113830057</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>704640.9722162626</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>200</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>320</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>1200</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>1300</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>371147.9935832111</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>371632.5972044002</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>371147.9935832111</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>371632.5972044002</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>-5015.711367450343</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>-5142.618122095614</v>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>30 MS13_2_MI1_Ol.txt</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10">
         <v>2400</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>2750</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>3750</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>4100</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Examples/Fitting_Water_Silicate_Melts/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
+++ b/docs/Examples/Fitting_Water_Silicate_Melts/Example4b_H2OQuant_MI/H2O_Silicate_areas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Host filename</t>
   </si>
@@ -22,10 +22,16 @@
     <t>MI filename</t>
   </si>
   <si>
-    <t>HW:LW_Trapezoid</t>
-  </si>
-  <si>
-    <t>HW:LW_Simpson</t>
+    <t>Water_to_HW_ratio_Trapezoid</t>
+  </si>
+  <si>
+    <t>Water_to_HW_ratio_Simpson</t>
+  </si>
+  <si>
+    <t>Water_to_Total_Silicate_ratio_Trapezoid</t>
+  </si>
+  <si>
+    <t>Water_to_Total_Silicate_ratio_Simpson</t>
   </si>
   <si>
     <t>Water_Trapezoid_Area</t>
@@ -497,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,55 +585,61 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>1.065691543078758</v>
+        <v>1.292629840169846</v>
       </c>
       <c r="E2">
-        <v>1.062774111100251</v>
+        <v>1.291034269198243</v>
       </c>
       <c r="F2">
+        <v>0.5563318478699465</v>
+      </c>
+      <c r="G2">
+        <v>0.5560726315094369</v>
+      </c>
+      <c r="H2">
         <v>211330.7171463963</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>211165.8087804655</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>379864.4962633868</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>379745.0131779807</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>200</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>320</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>1200</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1300</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>5</v>
-      </c>
-      <c r="O2">
-        <v>198303.8323977563</v>
-      </c>
-      <c r="P2">
-        <v>198693.0304143872</v>
       </c>
       <c r="Q2">
         <v>198303.8323977563</v>
@@ -636,78 +648,84 @@
         <v>198693.0304143872</v>
       </c>
       <c r="S2">
+        <v>163488.9668945198</v>
+      </c>
+      <c r="T2">
+        <v>163563.287062553</v>
+      </c>
+      <c r="U2">
         <v>2856.492902988196</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>2889.766263740253</v>
       </c>
-      <c r="U2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2">
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2">
         <v>2400</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>2750</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>3750</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>4100</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>1.026382914956093</v>
+        <v>1.273931697812721</v>
       </c>
       <c r="E3">
-        <v>1.027835536277315</v>
+        <v>1.275060348445086</v>
       </c>
       <c r="F3">
+        <v>0.540900143409804</v>
+      </c>
+      <c r="G3">
+        <v>0.5408311741494725</v>
+      </c>
+      <c r="H3">
         <v>204905.6234018446</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>204953.0991150654</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>378823.385237303</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>378959.4773958451</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>200</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>320</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>1200</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>1300</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>5</v>
-      </c>
-      <c r="O3">
-        <v>199638.5758336693</v>
-      </c>
-      <c r="P3">
-        <v>199402.6202454319</v>
       </c>
       <c r="Q3">
         <v>199638.5758336693</v>
@@ -716,78 +734,84 @@
         <v>199402.6202454319</v>
       </c>
       <c r="S3">
+        <v>160845.0623794491</v>
+      </c>
+      <c r="T3">
+        <v>160739.9205574875</v>
+      </c>
+      <c r="U3">
         <v>3243.413313619381</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>3171.252207583208</v>
       </c>
-      <c r="U3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3">
+      <c r="W3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3">
         <v>2400</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>2750</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>3750</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>4100</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>1.144681175072166</v>
+        <v>1.462605918425059</v>
       </c>
       <c r="E4">
-        <v>1.144598466934983</v>
+        <v>1.464273715382696</v>
       </c>
       <c r="F4">
+        <v>0.6082280020372283</v>
+      </c>
+      <c r="G4">
+        <v>0.6090661765916531</v>
+      </c>
+      <c r="H4">
         <v>390345.8836038833</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>390493.0153701139</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>641775.587931565</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>641133.9693090838</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>200</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>320</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1200</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>1300</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>5</v>
-      </c>
-      <c r="O4">
-        <v>341008.3891519174</v>
-      </c>
-      <c r="P4">
-        <v>341161.5746924594</v>
       </c>
       <c r="Q4">
         <v>341008.3891519174</v>
@@ -796,78 +820,84 @@
         <v>341161.5746924594</v>
       </c>
       <c r="S4">
+        <v>266883.839786598</v>
+      </c>
+      <c r="T4">
+        <v>266680.3421162664</v>
+      </c>
+      <c r="U4">
         <v>8678.840040662884</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>8710.81382683795</v>
       </c>
-      <c r="U4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4">
+      <c r="W4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4">
         <v>2400</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>2750</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>3750</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>4100</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>2.093381815004508</v>
+        <v>2.295836288265446</v>
       </c>
       <c r="E5">
-        <v>2.093516593905724</v>
+        <v>2.294857305069154</v>
       </c>
       <c r="F5">
+        <v>1.036494843966689</v>
+      </c>
+      <c r="G5">
+        <v>1.036425783846596</v>
+      </c>
+      <c r="H5">
         <v>271652.008729049</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>271618.7162290477</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>262087.1780600768</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>262072.5192892833</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>200</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>320</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>1200</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1300</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>5</v>
-      </c>
-      <c r="O5">
-        <v>129767.0624546168</v>
-      </c>
-      <c r="P5">
-        <v>129742.8054880177</v>
       </c>
       <c r="Q5">
         <v>129767.0624546168</v>
@@ -876,78 +906,84 @@
         <v>129742.8054880177</v>
       </c>
       <c r="S5">
+        <v>118323.771654593</v>
+      </c>
+      <c r="T5">
+        <v>118359.7409865371</v>
+      </c>
+      <c r="U5">
         <v>3076.166397692113</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>3017.302180570991</v>
       </c>
-      <c r="U5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5">
+      <c r="W5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5">
         <v>2400</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>2750</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>3750</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>4100</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>1.199234652750929</v>
+        <v>1.290089411868106</v>
       </c>
       <c r="E6">
-        <v>1.200204170214932</v>
+        <v>1.291684740425323</v>
       </c>
       <c r="F6">
+        <v>0.5857015149713926</v>
+      </c>
+      <c r="G6">
+        <v>0.5863459887610969</v>
+      </c>
+      <c r="H6">
         <v>203547.7422834505</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>203697.502550851</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>347528.1130071729</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>347401.545257004</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>200</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>320</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>1200</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>1300</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>5</v>
-      </c>
-      <c r="O6">
-        <v>169731.371434716</v>
-      </c>
-      <c r="P6">
-        <v>169719.0424812247</v>
       </c>
       <c r="Q6">
         <v>169731.371434716</v>
@@ -956,78 +992,84 @@
         <v>169719.0424812247</v>
       </c>
       <c r="S6">
+        <v>157778.0116718457</v>
+      </c>
+      <c r="T6">
+        <v>157699.0856792022</v>
+      </c>
+      <c r="U6">
         <v>5423.488224573</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>5568.872825816409</v>
       </c>
-      <c r="U6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6">
+      <c r="W6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6">
         <v>2400</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>2750</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>3750</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>4100</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>1.502842511405003</v>
+        <v>1.664158604810927</v>
       </c>
       <c r="E7">
-        <v>1.502167412406063</v>
+        <v>1.663156778932797</v>
       </c>
       <c r="F7">
+        <v>0.7535530615278695</v>
+      </c>
+      <c r="G7">
+        <v>0.7539094006407246</v>
+      </c>
+      <c r="H7">
         <v>452191.283881026</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>452122.5283720619</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>600078.8888896341</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>599704.0599146485</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>200</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>320</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>1200</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1300</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>5</v>
-      </c>
-      <c r="O7">
-        <v>300890.6658211802</v>
-      </c>
-      <c r="P7">
-        <v>300980.1202170168</v>
       </c>
       <c r="Q7">
         <v>300890.6658211802</v>
@@ -1036,78 +1078,84 @@
         <v>300980.1202170168</v>
       </c>
       <c r="S7">
+        <v>271723.6701921218</v>
+      </c>
+      <c r="T7">
+        <v>271846.0064012587</v>
+      </c>
+      <c r="U7">
         <v>3891.606261648461</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>3878.421110774754</v>
       </c>
-      <c r="U7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7">
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7">
         <v>2400</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>2750</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>3750</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>4100</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>0.9391688424073371</v>
+        <v>1.40421484771173</v>
       </c>
       <c r="E8">
-        <v>0.938510439729218</v>
+        <v>1.401133172915393</v>
       </c>
       <c r="F8">
+        <v>0.5431150339105626</v>
+      </c>
+      <c r="G8">
+        <v>0.5421314480607695</v>
+      </c>
+      <c r="H8">
         <v>350526.6765265227</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>350212.0565708795</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>645400.4301862975</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>645991.0374570688</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>200</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>320</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1200</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>1300</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>5</v>
-      </c>
-      <c r="O8">
-        <v>373230.734132992</v>
-      </c>
-      <c r="P8">
-        <v>373157.337143659</v>
       </c>
       <c r="Q8">
         <v>373230.734132992</v>
@@ -1116,78 +1164,84 @@
         <v>373157.337143659</v>
       </c>
       <c r="S8">
+        <v>249624.6760940688</v>
+      </c>
+      <c r="T8">
+        <v>249949.1578250049</v>
+      </c>
+      <c r="U8">
         <v>-1187.882503579991</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>-1071.842340321478</v>
       </c>
-      <c r="U8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8">
+      <c r="W8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8">
         <v>2400</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>2750</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>3750</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>4100</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>1.399086518288756</v>
+        <v>1.482581492775406</v>
       </c>
       <c r="E9">
-        <v>1.400453303369296</v>
+        <v>1.484296455105142</v>
       </c>
       <c r="F9">
+        <v>0.682130888805605</v>
+      </c>
+      <c r="G9">
+        <v>0.6836612271019548</v>
+      </c>
+      <c r="H9">
         <v>3935931.766783885</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>3940016.475411843</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>5770053.565050554</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>5763112.370893992</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>200</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>320</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>1200</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>1300</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>5</v>
-      </c>
-      <c r="O9">
-        <v>2813215.419728283</v>
-      </c>
-      <c r="P9">
-        <v>2813386.541295387</v>
       </c>
       <c r="Q9">
         <v>2813215.419728283</v>
@@ -1196,78 +1250,84 @@
         <v>2813386.541295387</v>
       </c>
       <c r="S9">
+        <v>2654782.746151636</v>
+      </c>
+      <c r="T9">
+        <v>2654467.348392843</v>
+      </c>
+      <c r="U9">
         <v>61186.66239566055</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>60713.03630594398</v>
       </c>
-      <c r="U9" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9">
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9">
         <v>2400</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>2750</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>3750</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>4100</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>0.1855341846314222</v>
+        <v>0.2208809723417182</v>
       </c>
       <c r="E10">
-        <v>0.185022436542896</v>
+        <v>0.2209181797644924</v>
       </c>
       <c r="F10">
+        <v>0.09752304149101522</v>
+      </c>
+      <c r="G10">
+        <v>0.09758213238332585</v>
+      </c>
+      <c r="H10">
         <v>68860.64036704937</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>68760.36863352277</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>706096.1113830057</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>704640.9722162626</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>200</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>320</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>1200</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>1300</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>5</v>
-      </c>
-      <c r="O10">
-        <v>371147.9935832111</v>
-      </c>
-      <c r="P10">
-        <v>371632.5972044002</v>
       </c>
       <c r="Q10">
         <v>371147.9935832111</v>
@@ -1276,27 +1336,33 @@
         <v>371632.5972044002</v>
       </c>
       <c r="S10">
+        <v>311754.5148276385</v>
+      </c>
+      <c r="T10">
+        <v>311248.122299505</v>
+      </c>
+      <c r="U10">
         <v>-5015.711367450343</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>-5142.618122095614</v>
       </c>
-      <c r="U10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10">
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10">
         <v>2400</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>2750</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>3750</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>4100</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>2</v>
       </c>
     </row>
